--- a/dataset/financials/ticker list.xlsx
+++ b/dataset/financials/ticker list.xlsx
@@ -72,9 +72,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>GBX</t>
-  </si>
-  <si>
     <t>JPY</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>GBP</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,7 @@
         <v>TSCO.L</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>SBRY.L</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>3382.T</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -537,7 +537,7 @@
         <v>AXFO.ST</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/financials/ticker list.xlsx
+++ b/dataset/financials/ticker list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Company</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>GBP</t>
+  </si>
+  <si>
+    <t>WMT.N</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>Walmart Inc</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +560,20 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
